--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Google Drive/R/ELH_results/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB246E55-F18C-DD4D-83A0-D949F890123A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB8A13-AFC1-0B4A-9B3A-3A2EA148A32B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{76F0FF4C-AA48-774D-A789-F92737C139E8}"/>
   </bookViews>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="104">
+  <si>
+    <t>Trait</t>
+  </si>
   <si>
     <t>df</t>
   </si>
@@ -36,21 +39,6 @@
   </si>
   <si>
     <t>mating system</t>
-  </si>
-  <si>
-    <t>log angle of attack</t>
-  </si>
-  <si>
-    <t>log bristle length</t>
-  </si>
-  <si>
-    <t>log number of bristles</t>
-  </si>
-  <si>
-    <t>log mass</t>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
   </si>
   <si>
     <r>
@@ -73,9 +61,6 @@
     <t>Trait (diaspore)</t>
   </si>
   <si>
-    <t>Trait (lab germination)</t>
-  </si>
-  <si>
     <t>combined B42</t>
   </si>
   <si>
@@ -208,133 +193,174 @@
     <t>Source of variation</t>
   </si>
   <si>
-    <t>Mean square</t>
+    <t>Lower CL</t>
+  </si>
+  <si>
+    <t>Upper CL</t>
+  </si>
+  <si>
+    <t>Terminal velocity</t>
+  </si>
+  <si>
+    <t>Germination success</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Leaf number</t>
+  </si>
+  <si>
+    <t>Leaf length</t>
+  </si>
+  <si>
+    <t>Estimate (slope)</t>
+  </si>
+  <si>
+    <t>Ploidy</t>
+  </si>
+  <si>
+    <t>-106.0499</t>
+  </si>
+  <si>
+    <t>-111.7200</t>
+  </si>
+  <si>
+    <t>39.8913</t>
+  </si>
+  <si>
+    <t>40.1070</t>
+  </si>
+  <si>
+    <t>40.5384</t>
+  </si>
+  <si>
+    <t>40.8403</t>
+  </si>
+  <si>
+    <t>41.2400</t>
+  </si>
+  <si>
+    <t>41.2528</t>
+  </si>
+  <si>
+    <t>40.9410</t>
+  </si>
+  <si>
+    <t>41.1430</t>
+  </si>
+  <si>
+    <t>41.3064</t>
+  </si>
+  <si>
+    <t>41.5478</t>
+  </si>
+  <si>
+    <t>42.7973</t>
+  </si>
+  <si>
+    <t>45.6619</t>
+  </si>
+  <si>
+    <t>42.8087</t>
+  </si>
+  <si>
+    <t>46.3329</t>
+  </si>
+  <si>
+    <t>46.6505</t>
+  </si>
+  <si>
+    <t>47.5500</t>
+  </si>
+  <si>
+    <t>50.6057</t>
+  </si>
+  <si>
+    <t>60.8360</t>
+  </si>
+  <si>
+    <t>predicted means</t>
+  </si>
+  <si>
+    <t>Lower CI</t>
+  </si>
+  <si>
+    <t>Upper CI</t>
+  </si>
+  <si>
+    <t>raw mean (cm/s)</t>
+  </si>
+  <si>
+    <t>predicted means (cm/s)</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>surv</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>germ</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Angle of attack</t>
+  </si>
+  <si>
+    <t>Mating system</t>
+  </si>
+  <si>
+    <t>Bristle length</t>
+  </si>
+  <si>
+    <t>Number of bristles</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Weight (scaled)</t>
+  </si>
+  <si>
+    <t>Number of bristles (scaled)</t>
+  </si>
+  <si>
+    <t>Bristle length (scaled)</t>
+  </si>
+  <si>
+    <t>Angle of attack (scaled)</t>
   </si>
   <si>
     <r>
-      <t>P-</t>
+      <t>R</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>value</t>
+      <t>2</t>
     </r>
   </si>
   <si>
-    <t>Trait (greenhouse)</t>
-  </si>
-  <si>
-    <t>Lower CL</t>
-  </si>
-  <si>
-    <t>Upper CL</t>
-  </si>
-  <si>
-    <t>Terminal velocity</t>
-  </si>
-  <si>
-    <t>Germination success</t>
-  </si>
-  <si>
-    <t>Days to germination</t>
-  </si>
-  <si>
-    <t>Log terminal velocity</t>
-  </si>
-  <si>
-    <t>Survival</t>
-  </si>
-  <si>
-    <t>Leaf number</t>
-  </si>
-  <si>
-    <t>Leaf length</t>
-  </si>
-  <si>
-    <t>Estimate (slope)</t>
-  </si>
-  <si>
-    <t>Ploidy</t>
-  </si>
-  <si>
-    <t>-106.0499</t>
-  </si>
-  <si>
-    <t>-111.7200</t>
-  </si>
-  <si>
-    <t>39.8913</t>
-  </si>
-  <si>
-    <t>40.1070</t>
-  </si>
-  <si>
-    <t>40.5384</t>
-  </si>
-  <si>
-    <t>40.8403</t>
-  </si>
-  <si>
-    <t>41.2400</t>
-  </si>
-  <si>
-    <t>41.2528</t>
-  </si>
-  <si>
-    <t>40.9410</t>
-  </si>
-  <si>
-    <t>41.1430</t>
-  </si>
-  <si>
-    <t>41.3064</t>
-  </si>
-  <si>
-    <t>41.5478</t>
-  </si>
-  <si>
-    <t>42.7973</t>
-  </si>
-  <si>
-    <t>45.6619</t>
-  </si>
-  <si>
-    <t>42.8087</t>
-  </si>
-  <si>
-    <t>46.3329</t>
-  </si>
-  <si>
-    <t>46.6505</t>
-  </si>
-  <si>
-    <t>47.5500</t>
-  </si>
-  <si>
-    <t>50.6057</t>
-  </si>
-  <si>
-    <t>60.8360</t>
-  </si>
-  <si>
-    <t>predicted means</t>
-  </si>
-  <si>
-    <t>Lower CI</t>
-  </si>
-  <si>
-    <t>Upper CI</t>
-  </si>
-  <si>
-    <t>raw mean (cm/s)</t>
-  </si>
-  <si>
-    <t>predicted means (cm/s)</t>
+    <t>Germination speed</t>
+  </si>
+  <si>
+    <t>Trait (germination/seedling)</t>
   </si>
 </sst>
 </file>
@@ -344,16 +370,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -438,7 +456,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -464,41 +482,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -510,13 +539,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,16 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -566,32 +586,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,13 +620,49 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +979,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED1F18-3C52-434B-A6DC-0D064F6949FF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -940,358 +996,415 @@
     <col min="7" max="7" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1">
+    <row r="1" spans="1:7" ht="20" thickBot="1">
       <c r="A1" s="27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickTop="1">
+      <c r="D1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickTop="1">
       <c r="A2" s="28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="C2" s="22">
-        <v>1</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1.3785000000000001</v>
-      </c>
-      <c r="F2" s="22">
-        <v>20.361999999999998</v>
-      </c>
-      <c r="G2" s="32">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22">
+        <v>12.163</v>
+      </c>
+      <c r="E2" s="33">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="29"/>
       <c r="B3" s="29" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C3" s="23">
+        <v>14</v>
+      </c>
+      <c r="D3" s="23">
+        <v>31.696999999999999</v>
+      </c>
+      <c r="E3" s="65">
+        <v>7.7350000000000001E-8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="60">
+        <v>5</v>
+      </c>
+      <c r="D4" s="60">
+        <v>8.7347999999999999</v>
+      </c>
+      <c r="E4" s="60">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="22">
+        <v>5</v>
+      </c>
+      <c r="D5" s="22">
+        <v>6.3478000000000003</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="22">
+        <v>4</v>
+      </c>
+      <c r="D6" s="22">
+        <v>2.1093000000000002</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.1464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="23">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E7" s="67">
+        <v>0.87509999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" thickBot="1">
+      <c r="B13" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickTop="1">
+      <c r="B14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22">
+        <v>-0.29430000000000001</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="F14" s="22">
+        <v>122.2</v>
+      </c>
+      <c r="G14" s="61">
+        <v>2E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22">
+        <v>-0.20419999999999999</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F15" s="22">
+        <v>43.21</v>
+      </c>
+      <c r="G15" s="61">
+        <v>5.4399999999999998E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="E16" s="22">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="F16" s="22">
+        <v>16.63</v>
+      </c>
+      <c r="G16" s="61">
+        <v>6.8800000000000005E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="59"/>
+      <c r="B17" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23">
+        <v>-8.8499999999999995E-2</v>
+      </c>
+      <c r="E17" s="23">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="F17" s="23">
+        <v>6.7530000000000001</v>
+      </c>
+      <c r="G17" s="58">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" thickBot="1">
+      <c r="A19" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickTop="1">
+      <c r="A20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="22">
+        <v>5</v>
+      </c>
+      <c r="D20" s="22">
+        <v>6.0278999999999998</v>
+      </c>
+      <c r="E20" s="33">
+        <v>1.4080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="22">
+        <v>14</v>
+      </c>
+      <c r="D21" s="22">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="E21" s="61">
+        <v>2.6130000000000002E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="22">
+        <v>1.1727000000000001</v>
+      </c>
+      <c r="E22" s="33">
+        <v>0.27889999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23">
+        <v>14</v>
+      </c>
+      <c r="D23" s="23">
+        <v>123.82</v>
+      </c>
+      <c r="E23" s="65">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="31">
+        <v>5</v>
+      </c>
+      <c r="D24" s="32">
+        <v>5.8537999999999997</v>
+      </c>
+      <c r="E24" s="33">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="31">
+        <v>14</v>
+      </c>
+      <c r="D25" s="32">
+        <v>22.120999999999999</v>
+      </c>
+      <c r="E25" s="33">
+        <v>2.35E-2</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="31">
+        <v>4</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="E26" s="33">
+        <v>0.3584</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="31">
         <v>13</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23">
-        <v>0.34710000000000002</v>
-      </c>
-      <c r="F3" s="23">
-        <v>5.1321000000000003</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="D27" s="22">
+        <v>31.832999999999998</v>
+      </c>
+      <c r="E27" s="33">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22">
-        <v>-0.51659999999999995</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0.6895</v>
-      </c>
-      <c r="F4" s="22">
-        <v>106.85680000000001</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <v>-0.52300000000000002</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.18529999999999999</v>
-      </c>
-      <c r="F5" s="22">
-        <v>28.7164</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="28" t="s">
+      <c r="C28" s="31">
         <v>5</v>
       </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22">
-        <v>-0.14410000000000001</v>
-      </c>
-      <c r="E6" s="22">
-        <v>2.8129999999999999E-2</v>
-      </c>
-      <c r="F6" s="22">
-        <v>4.3593000000000002</v>
-      </c>
-      <c r="G6" s="32">
-        <v>3.8469999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.46820000000000001</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0.64654</v>
-      </c>
-      <c r="F7" s="23">
-        <v>100.1981</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" thickBot="1">
-      <c r="A9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickTop="1">
-      <c r="A10" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1.1727000000000001</v>
-      </c>
-      <c r="E10" s="32">
-        <v>1.4080000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="22">
-        <v>11</v>
-      </c>
-      <c r="D11" s="22">
-        <v>68.260000000000005</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22">
-        <v>1.1727000000000001</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0.27889999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="23">
-        <v>11</v>
-      </c>
-      <c r="D13" s="23">
-        <v>123.82</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" thickBot="1">
-      <c r="A15" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" thickTop="1">
-      <c r="A16" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="34">
-        <v>1</v>
-      </c>
-      <c r="F16" s="35">
-        <v>4.8537999999999997</v>
-      </c>
-      <c r="G16" s="32">
-        <v>1.55E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="34">
-        <v>11</v>
-      </c>
-      <c r="F17" s="35">
-        <v>22.120999999999999</v>
-      </c>
-      <c r="G17" s="32">
-        <v>2.35E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="34">
-        <v>1</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0.88790000000000002</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="34">
-        <v>11</v>
-      </c>
-      <c r="F19" s="22">
-        <v>31.591999999999999</v>
-      </c>
-      <c r="G19" s="32">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="34">
-        <v>1</v>
-      </c>
-      <c r="D20" s="22">
-        <v>56.399000000000001</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1.2027000000000001</v>
-      </c>
-      <c r="G20" s="36">
-        <v>0.29820000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="39">
-        <v>11</v>
-      </c>
-      <c r="D21" s="23">
-        <v>182.6</v>
-      </c>
-      <c r="E21" s="23">
-        <v>3.8929999999999998</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D28" s="22">
+        <v>1.3304</v>
+      </c>
+      <c r="E28" s="33">
+        <v>0.2487</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="29"/>
+      <c r="B29" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="36">
+        <v>14</v>
+      </c>
+      <c r="D29" s="23">
+        <v>39.701000000000001</v>
+      </c>
+      <c r="E29" s="65">
+        <v>4.0250000000000003E-5</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="F31"/>
+      <c r="G31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1305,7 +1418,7 @@
   <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1321,37 +1434,39 @@
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="J1" s="8"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
@@ -1361,56 +1476,56 @@
     </row>
     <row r="2" spans="1:22" ht="17" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="22"/>
-      <c r="C2" s="36">
+      <c r="C2" s="33">
         <v>90</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="51">
         <v>1.38</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="40">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="41">
         <v>1.3581000000000001</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="41">
         <v>1.2014</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="41">
         <v>1.5146999999999999</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="17" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>87</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="52">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="42">
         <v>0.89749999999999996</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="42">
         <v>0.75139999999999996</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="42">
         <v>1.0436000000000001</v>
       </c>
       <c r="I3" s="10"/>
@@ -1423,27 +1538,27 @@
     </row>
     <row r="4" spans="1:22" ht="17" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="46">
+        <v>30</v>
+      </c>
+      <c r="C4" s="43">
         <v>28</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="48">
         <v>1.3973895000000001</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="48">
         <v>8.8278510000000004E-2</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="49">
         <v>1.3973895000000001</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="49">
         <v>1.2241607000000001</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="49">
         <v>1.5706184000000001</v>
       </c>
       <c r="I4" s="10"/>
@@ -1460,24 +1575,24 @@
     <row r="5" spans="1:22">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="46">
+        <v>31</v>
+      </c>
+      <c r="C5" s="43">
         <v>20</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="48">
         <v>1.1968306</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="48">
         <v>6.0192290000000002E-2</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="49">
         <v>1.1968306</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="49">
         <v>0.99186350000000001</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="49">
         <v>1.4017978</v>
       </c>
       <c r="I5" s="12"/>
@@ -1493,24 +1608,24 @@
     <row r="6" spans="1:22">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="46">
+        <v>32</v>
+      </c>
+      <c r="C6" s="43">
         <v>20</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="48">
         <v>1.6872594999999999</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="48">
         <v>0.12276081</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="49">
         <v>1.6872594999999999</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="49">
         <v>1.4822924</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="49">
         <v>1.8922266000000001</v>
       </c>
       <c r="I6" s="12"/>
@@ -1526,24 +1641,24 @@
     <row r="7" spans="1:22">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="46">
+        <v>36</v>
+      </c>
+      <c r="C7" s="43">
         <v>14</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="48">
         <v>1.2901114</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="48">
         <v>0.13540305999999999</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="49">
         <v>1.2901114</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="49">
         <v>1.0451288000000001</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="49">
         <v>1.535094</v>
       </c>
       <c r="I7" s="12"/>
@@ -1557,26 +1672,26 @@
       <c r="V7"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="47">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="44">
         <v>8</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="50">
         <v>1.1208278</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="50">
         <v>0.11461085999999999</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="54">
         <v>1.1208278</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="54">
         <v>0.79674630000000002</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="54">
         <v>1.4449093</v>
       </c>
       <c r="I8" s="12"/>
@@ -1591,27 +1706,27 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="46">
+      <c r="C9" s="43">
         <v>20</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="48">
         <v>0.95498620000000001</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="48">
         <v>4.8463409999999998E-2</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="49">
         <v>0.95498620000000001</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="49">
         <v>0.75001910000000005</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="49">
         <v>1.1599533</v>
       </c>
       <c r="I9" s="12"/>
@@ -1627,24 +1742,24 @@
     <row r="10" spans="1:22">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="46">
+        <v>37</v>
+      </c>
+      <c r="C10" s="43">
         <v>20</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="48">
         <v>1.0942657</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="48">
         <v>7.2244790000000003E-2</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="49">
         <v>1.0942657</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="49">
         <v>0.88929860000000005</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="49">
         <v>1.2992328</v>
       </c>
       <c r="I10" s="12"/>
@@ -1660,24 +1775,24 @@
     <row r="11" spans="1:22">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="46">
+        <v>41</v>
+      </c>
+      <c r="C11" s="43">
         <v>20</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="48">
         <v>0.77922179999999996</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="48">
         <v>7.6450420000000005E-2</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="49">
         <v>0.77922179999999996</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="49">
         <v>0.57425459999999995</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="49">
         <v>0.98418890000000003</v>
       </c>
       <c r="I11" s="12"/>
@@ -1693,24 +1808,24 @@
     <row r="12" spans="1:22">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="46">
+        <v>42</v>
+      </c>
+      <c r="C12" s="43">
         <v>10</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="48">
         <v>0.84381609999999996</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="48">
         <v>6.5368170000000003E-2</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="49">
         <v>0.84381609999999996</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="49">
         <v>0.55394880000000002</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="49">
         <v>1.1336834</v>
       </c>
       <c r="I12" s="12"/>
@@ -1726,24 +1841,24 @@
     <row r="13" spans="1:22">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="46">
+        <v>44</v>
+      </c>
+      <c r="C13" s="43">
         <v>6</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="48">
         <v>0.91313460000000002</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="48">
         <v>2.7301800000000001E-2</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="49">
         <v>0.91313460000000002</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="49">
         <v>0.53891750000000005</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="49">
         <v>1.2873517000000001</v>
       </c>
       <c r="I13" s="12"/>
@@ -1759,24 +1874,24 @@
     <row r="14" spans="1:22">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="46">
+        <v>47</v>
+      </c>
+      <c r="C14" s="43">
         <v>5</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="48">
         <v>0.60998289999999999</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="48">
         <v>4.6286279999999999E-2</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="49">
         <v>0.6240964</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="49">
         <v>0.2342545</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="49">
         <v>1.0139384</v>
       </c>
       <c r="I14" s="12"/>
@@ -1790,26 +1905,26 @@
       <c r="V14"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="47">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="44">
         <v>6</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="50">
         <v>0.96134580000000003</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="50">
         <v>6.6007540000000003E-2</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="54">
         <v>0.96134580000000003</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="54">
         <v>0.58712869999999995</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="54">
         <v>1.3355627999999999</v>
       </c>
       <c r="I15" s="12"/>
@@ -1825,12 +1940,12 @@
     <row r="16" spans="1:22">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="12"/>
@@ -1843,30 +1958,32 @@
     </row>
     <row r="17" spans="1:22" ht="17" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -1878,25 +1995,25 @@
     </row>
     <row r="18" spans="1:22" ht="17" thickTop="1">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="48">
+      <c r="C18" s="45">
         <v>2112</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="48">
         <v>0.58854169999999995</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="48">
         <v>1.0710443E-2</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="48">
         <v>0.60670000000000002</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="48">
         <v>0.47199999999999998</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="48">
         <v>0.72689999999999999</v>
       </c>
       <c r="I18" s="9"/>
@@ -1904,25 +2021,25 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" ht="17" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <v>2112</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="53">
         <v>0.78219700000000003</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="53">
         <v>8.983507E-3</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="53">
         <v>0.82189999999999996</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="53">
         <v>0.72729999999999995</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="53">
         <v>0.88870000000000005</v>
       </c>
       <c r="I19" s="8"/>
@@ -1942,65 +2059,65 @@
     </row>
     <row r="20" spans="1:22" ht="17" thickTop="1">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="35">
+        <v>29</v>
+      </c>
+      <c r="C20" s="32">
         <v>352</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="48">
         <v>0.3125</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="48">
         <v>2.4740459999999999E-2</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="49">
         <v>0.2354678</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="49">
         <v>0.13847010000000001</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="49">
         <v>0.3711409</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="O20" s="47"/>
       <c r="V20"/>
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1" ht="17" thickBot="1">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="35">
+        <v>30</v>
+      </c>
+      <c r="C21" s="32">
         <v>352</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="48">
         <v>0.70738639999999997</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="48">
         <v>2.4284099999999999E-2</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="49">
         <v>0.7357224</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="49">
         <v>0.59767910000000002</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="49">
         <v>0.83914789999999995</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="O21" s="47"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
@@ -2011,324 +2128,324 @@
     <row r="22" spans="1:22" ht="17" thickTop="1">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="35">
+        <v>31</v>
+      </c>
+      <c r="C22" s="32">
         <v>352</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="48">
         <v>0.69602269999999999</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="48">
         <v>2.455154E-2</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="49">
         <v>0.73506320000000003</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="49">
         <v>0.59638239999999998</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="49">
         <v>0.83896079999999995</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="O22" s="50"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="O22" s="47"/>
       <c r="V22"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="35">
+        <v>32</v>
+      </c>
+      <c r="C23" s="32">
         <v>352</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="48">
         <v>0.51420449999999995</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="48">
         <v>2.667725E-2</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="49">
         <v>0.52103980000000005</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="49">
         <v>0.36891679999999999</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="49">
         <v>0.66935829999999996</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="O23" s="50"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="O23" s="47"/>
       <c r="V23"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="35">
+        <v>35</v>
+      </c>
+      <c r="C24" s="32">
         <v>352</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="48">
         <v>0.52840909999999996</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="48">
         <v>2.6644910000000001E-2</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="49">
         <v>0.52071979999999995</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="49">
         <v>0.36535079999999998</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="49">
         <v>0.67218149999999999</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="O24" s="47"/>
       <c r="V24"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="49">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="46">
         <v>352</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="50">
         <v>0.77272730000000001</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="50">
         <v>2.2368309999999999E-2</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="54">
         <v>0.82825289999999996</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="54">
         <v>0.71583799999999997</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="54">
         <v>0.90226790000000001</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="O25" s="50"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="O25" s="47"/>
       <c r="V25"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="35">
+        <v>34</v>
+      </c>
+      <c r="C26" s="32">
         <v>352</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="48">
         <v>0.78125</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="48">
         <v>2.206559E-2</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="49">
         <v>0.81659380000000004</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="49">
         <v>0.70118250000000004</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="49">
         <v>0.89415869999999997</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="O26" s="50"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="O26" s="47"/>
       <c r="V26"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="35">
+        <v>37</v>
+      </c>
+      <c r="C27" s="32">
         <v>352</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="48">
         <v>0.73295449999999995</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="48">
         <v>2.3614429999999999E-2</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="49">
         <v>0.75178900000000004</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="49">
         <v>0.61792519999999995</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="49">
         <v>0.85012750000000004</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="O27" s="50"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="O27" s="47"/>
       <c r="V27"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="35">
+        <v>38</v>
+      </c>
+      <c r="C28" s="32">
         <v>352</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="48">
         <v>0.72443179999999996</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="48">
         <v>2.384843E-2</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="49">
         <v>0.74661339999999998</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="49">
         <v>0.61116130000000002</v>
       </c>
-      <c r="H28" s="52">
+      <c r="H28" s="49">
         <v>0.84671510000000005</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="O28" s="50"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="O28" s="47"/>
       <c r="V28"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="35">
+        <v>43</v>
+      </c>
+      <c r="C29" s="32">
         <v>352</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="48">
         <v>0.78693179999999996</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="48">
         <v>2.1856179999999999E-2</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="49">
         <v>0.83428340000000001</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="49">
         <v>0.72384329999999997</v>
       </c>
-      <c r="H29" s="52">
+      <c r="H29" s="49">
         <v>0.90627539999999995</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="O29" s="50"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="O29" s="47"/>
       <c r="V29"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="35">
+        <v>45</v>
+      </c>
+      <c r="C30" s="32">
         <v>352</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="48">
         <v>0.81818179999999996</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="48">
         <v>2.0586859999999998E-2</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="49">
         <v>0.87061750000000004</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="49">
         <v>0.77510820000000002</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="49">
         <v>0.9292665</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="O30" s="50"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="O30" s="47"/>
       <c r="V30"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="49">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="46">
         <v>352</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="50">
         <v>0.84943179999999996</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="50">
         <v>1.908874E-2</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="54">
         <v>0.87485020000000002</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="54">
         <v>0.78422550000000002</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="54">
         <v>0.93077270000000001</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="O31" s="50"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="O31" s="47"/>
       <c r="V31"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -2336,1376 +2453,1466 @@
     </row>
     <row r="33" spans="1:16" ht="17" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="7"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:16" ht="17" thickTop="1">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="35">
+      <c r="C34" s="32">
         <v>1204</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="48">
         <v>6.89</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="48">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="48">
         <v>6.7508999999999997</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="48">
         <v>5.8103999999999996</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="48">
         <v>7.8436000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="17" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <v>1607</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="52">
         <v>6.08</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="52">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="53">
         <v>5.9938000000000002</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="53">
         <v>5.1631999999999998</v>
       </c>
-      <c r="H35" s="56">
+      <c r="H35" s="53">
         <v>6.9579000000000004</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:16" ht="17" thickTop="1">
       <c r="A36" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="46">
+        <v>29</v>
+      </c>
+      <c r="C36" s="43">
         <v>104</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="48">
         <v>8.1730769999999993</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="48">
         <v>0.2848038</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="49">
         <v>8.0632450000000002</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="49">
         <v>7.1890770000000002</v>
       </c>
-      <c r="H36" s="52">
+      <c r="H36" s="49">
         <v>9.0437089999999998</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="P36" s="50"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="P36" s="47"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="46">
+        <v>30</v>
+      </c>
+      <c r="C37" s="43">
         <v>237</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="48">
         <v>9.5316460000000003</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="48">
         <v>0.32332319999999998</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="49">
         <v>9.2823250000000002</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G37" s="49">
         <v>8.5150240000000004</v>
       </c>
-      <c r="H37" s="52">
+      <c r="H37" s="49">
         <v>10.118769</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="P37" s="50"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="P37" s="47"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="46">
+        <v>31</v>
+      </c>
+      <c r="C38" s="43">
         <v>240</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="48">
         <v>5.829167</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="48">
         <v>0.12828639999999999</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="49">
         <v>5.7031720000000004</v>
       </c>
-      <c r="G38" s="52">
+      <c r="G38" s="49">
         <v>5.2020379999999999</v>
       </c>
-      <c r="H38" s="52">
+      <c r="H38" s="49">
         <v>6.2525839999999997</v>
       </c>
       <c r="I38" s="6"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="P38" s="50"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="P38" s="47"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="46">
+        <v>32</v>
+      </c>
+      <c r="C39" s="43">
         <v>171</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="48">
         <v>8.3918130000000009</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="48">
         <v>0.22977149999999999</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="49">
         <v>8.5058629999999997</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G39" s="49">
         <v>7.7524499999999996</v>
       </c>
-      <c r="H39" s="52">
+      <c r="H39" s="49">
         <v>9.3324960000000008</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="P39" s="50"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="P39" s="47"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="46">
+        <v>35</v>
+      </c>
+      <c r="C40" s="43">
         <v>183</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="48">
         <v>4.9945360000000001</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="48">
         <v>0.15909300000000001</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="49">
         <v>4.9095190000000004</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="49">
         <v>4.4140610000000002</v>
       </c>
-      <c r="H40" s="52">
+      <c r="H40" s="49">
         <v>5.4605889999999997</v>
       </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="P40" s="50"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="P40" s="47"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="41"/>
-      <c r="B41" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="47">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="44">
         <v>269</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="50">
         <v>5.3531599999999999</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="50">
         <v>0.112687</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="54">
         <v>5.3278850000000002</v>
       </c>
-      <c r="G41" s="57">
+      <c r="G41" s="54">
         <v>4.8608099999999999</v>
       </c>
-      <c r="H41" s="57">
+      <c r="H41" s="54">
         <v>5.8398409999999998</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="P41" s="50"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="P41" s="47"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="46">
+        <v>34</v>
+      </c>
+      <c r="C42" s="43">
         <v>263</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="48">
         <v>5.8555130000000002</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="48">
         <v>0.12695000000000001</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="49">
         <v>5.8174479999999997</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="49">
         <v>5.3151809999999999</v>
       </c>
-      <c r="H42" s="52">
+      <c r="H42" s="49">
         <v>6.3671769999999999</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="P42" s="50"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="P42" s="47"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="46">
+        <v>37</v>
+      </c>
+      <c r="C43" s="43">
         <v>253</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="48">
         <v>5.8339920000000003</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="48">
         <v>0.11580559999999999</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="49">
         <v>5.9008839999999996</v>
       </c>
-      <c r="G43" s="52">
+      <c r="G43" s="49">
         <v>5.3914809999999997</v>
       </c>
-      <c r="H43" s="52">
+      <c r="H43" s="49">
         <v>6.458418</v>
       </c>
       <c r="I43" s="6"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="P43" s="50"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="P43" s="47"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="46">
+        <v>38</v>
+      </c>
+      <c r="C44" s="43">
         <v>250</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="48">
         <v>5.2320000000000002</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="48">
         <v>0.11168980000000001</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="49">
         <v>5.1096769999999996</v>
       </c>
-      <c r="G44" s="52">
+      <c r="G44" s="49">
         <v>4.6570600000000004</v>
       </c>
-      <c r="H44" s="52">
+      <c r="H44" s="49">
         <v>5.6062839999999996</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="P44" s="50"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="P44" s="47"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="46">
+        <v>43</v>
+      </c>
+      <c r="C45" s="43">
         <v>268</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="48">
         <v>6.4701490000000002</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="48">
         <v>0.11955399999999999</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="49">
         <v>6.5272759999999996</v>
       </c>
-      <c r="G45" s="52">
+      <c r="G45" s="49">
         <v>5.9754269999999998</v>
       </c>
-      <c r="H45" s="52">
+      <c r="H45" s="49">
         <v>7.13009</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="P45" s="50"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="P45" s="47"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="43">
         <v>278</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="48">
         <v>6.2517990000000001</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="48">
         <v>0.10557859999999999</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="49">
         <v>6.1440020000000004</v>
       </c>
-      <c r="G46" s="52">
+      <c r="G46" s="49">
         <v>5.6205590000000001</v>
       </c>
-      <c r="H46" s="52">
+      <c r="H46" s="49">
         <v>6.7161929999999996</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="P46" s="50"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="P46" s="47"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="47">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="44">
         <v>295</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D47" s="50">
         <v>6.701695</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E47" s="50">
         <v>0.11672879999999999</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="54">
         <v>6.5921529999999997</v>
       </c>
-      <c r="G47" s="57">
+      <c r="G47" s="54">
         <v>6.0458020000000001</v>
       </c>
-      <c r="H47" s="57">
+      <c r="H47" s="54">
         <v>7.1878760000000002</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="P47" s="50"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="P47" s="47"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:16" ht="17" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:16" ht="17" thickTop="1">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="46">
+      <c r="C50" s="43">
         <v>1297</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="43">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="43">
         <v>5.6499999999999996E-3</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="43">
         <v>0.96919999999999995</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="43">
         <v>0.95309999999999995</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="43">
         <v>0.9798</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="17" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="31">
+      <c r="C51" s="30">
         <v>1595</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="30">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="30">
         <v>6.6299999999999996E-3</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="42">
         <v>0.94240000000000002</v>
       </c>
-      <c r="G51" s="45">
+      <c r="G51" s="42">
         <v>0.91910000000000003</v>
       </c>
-      <c r="H51" s="45">
+      <c r="H51" s="42">
         <v>0.95940000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="17" thickTop="1">
       <c r="A52" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="46">
+        <v>29</v>
+      </c>
+      <c r="C52" s="43">
         <v>127</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="48">
         <v>0.94488190000000005</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="48">
         <v>2.0330620000000001E-2</v>
       </c>
-      <c r="F52" s="52">
+      <c r="F52" s="49">
         <v>0.95719730000000003</v>
       </c>
-      <c r="G52" s="52">
+      <c r="G52" s="49">
         <v>0.89535529999999997</v>
       </c>
-      <c r="H52" s="52">
+      <c r="H52" s="49">
         <v>0.98317900000000003</v>
       </c>
       <c r="I52"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="P52" s="50"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="P52" s="47"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="46">
+        <v>30</v>
+      </c>
+      <c r="C53" s="43">
         <v>257</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="48">
         <v>0.97276260000000003</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="48">
         <v>1.0173400000000001E-2</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="49">
         <v>0.9804522</v>
       </c>
-      <c r="G53" s="52">
+      <c r="G53" s="49">
         <v>0.95196360000000002</v>
       </c>
-      <c r="H53" s="52">
+      <c r="H53" s="49">
         <v>0.99218399999999995</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="P53" s="50"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="P53" s="47"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="46">
+        <v>31</v>
+      </c>
+      <c r="C54" s="43">
         <v>247</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="48">
         <v>0.96761129999999995</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="48">
         <v>1.128702E-2</v>
       </c>
-      <c r="F54" s="52">
+      <c r="F54" s="49">
         <v>0.97621720000000001</v>
       </c>
-      <c r="G54" s="52">
+      <c r="G54" s="49">
         <v>0.94468459999999999</v>
       </c>
-      <c r="H54" s="52">
+      <c r="H54" s="49">
         <v>0.9899656</v>
       </c>
       <c r="I54" s="7"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="P54" s="50"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="P54" s="47"/>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="46">
+        <v>32</v>
+      </c>
+      <c r="C55" s="43">
         <v>188</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="48">
         <v>0.92553189999999996</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="48">
         <v>1.9198179999999999E-2</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="49">
         <v>0.93940159999999995</v>
       </c>
-      <c r="G55" s="52">
+      <c r="G55" s="49">
         <v>0.88008249999999999</v>
       </c>
-      <c r="H55" s="52">
+      <c r="H55" s="49">
         <v>0.9703657</v>
       </c>
       <c r="I55" s="7"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="P55" s="50"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="P55" s="47"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="46">
+        <v>35</v>
+      </c>
+      <c r="C56" s="43">
         <v>213</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="48">
         <v>0.95774649999999995</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="48">
         <v>1.3816210000000001E-2</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="49">
         <v>0.96902379999999999</v>
       </c>
-      <c r="G56" s="52">
+      <c r="G56" s="49">
         <v>0.92920720000000001</v>
       </c>
-      <c r="H56" s="52">
+      <c r="H56" s="49">
         <v>0.986765</v>
       </c>
       <c r="I56" s="7"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="P56" s="50"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="P56" s="47"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="47">
+      <c r="A57" s="38"/>
+      <c r="B57" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="44">
         <v>265</v>
       </c>
-      <c r="D57" s="53">
+      <c r="D57" s="50">
         <v>0.95849059999999997</v>
       </c>
-      <c r="E57" s="53">
+      <c r="E57" s="50">
         <v>1.2276240000000001E-2</v>
       </c>
-      <c r="F57" s="57">
+      <c r="F57" s="54">
         <v>0.97021919999999995</v>
       </c>
-      <c r="G57" s="57">
+      <c r="G57" s="54">
         <v>0.93577969999999999</v>
       </c>
-      <c r="H57" s="57">
+      <c r="H57" s="54">
         <v>0.98645709999999998</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="P57" s="50"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="P57" s="47"/>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="46">
+        <v>34</v>
+      </c>
+      <c r="C58" s="43">
         <v>265</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D58" s="48">
         <v>0.86415090000000006</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="48">
         <v>2.1087310000000001E-2</v>
       </c>
-      <c r="F58" s="52">
+      <c r="F58" s="49">
         <v>0.88538930000000005</v>
       </c>
-      <c r="G58" s="52">
+      <c r="G58" s="49">
         <v>0.80918999999999996</v>
       </c>
-      <c r="H58" s="52">
+      <c r="H58" s="49">
         <v>0.93365359999999997</v>
       </c>
       <c r="I58" s="7"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="P58" s="50"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="P58" s="47"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1"/>
       <c r="B59" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="46">
+        <v>37</v>
+      </c>
+      <c r="C59" s="43">
         <v>248</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="48">
         <v>0.95564519999999997</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="48">
         <v>1.3099970000000001E-2</v>
       </c>
-      <c r="F59" s="52">
+      <c r="F59" s="49">
         <v>0.96541580000000005</v>
       </c>
-      <c r="G59" s="52">
+      <c r="G59" s="49">
         <v>0.92656470000000002</v>
       </c>
-      <c r="H59" s="52">
+      <c r="H59" s="49">
         <v>0.98406610000000005</v>
       </c>
       <c r="I59" s="7"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="P59" s="50"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="P59" s="47"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="46">
+        <v>38</v>
+      </c>
+      <c r="C60" s="43">
         <v>248</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="48">
         <v>0.92338710000000002</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="48">
         <v>1.692366E-2</v>
       </c>
-      <c r="F60" s="52">
+      <c r="F60" s="49">
         <v>0.94176859999999996</v>
       </c>
-      <c r="G60" s="52">
+      <c r="G60" s="49">
         <v>0.89056900000000006</v>
       </c>
-      <c r="H60" s="52">
+      <c r="H60" s="49">
         <v>0.9698251</v>
       </c>
       <c r="I60" s="7"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="P60" s="50"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="P60" s="47"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="46">
+        <v>43</v>
+      </c>
+      <c r="C61" s="43">
         <v>276</v>
       </c>
-      <c r="D61" s="51">
+      <c r="D61" s="48">
         <v>0.94202900000000001</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="48">
         <v>1.4091950000000001E-2</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="49">
         <v>0.95082770000000005</v>
       </c>
-      <c r="G61" s="52">
+      <c r="G61" s="49">
         <v>0.90551550000000003</v>
       </c>
-      <c r="H61" s="52">
+      <c r="H61" s="49">
         <v>0.97500909999999996</v>
       </c>
       <c r="I61" s="7"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="P61" s="50"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="P61" s="47"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="46">
+        <v>45</v>
+      </c>
+      <c r="C62" s="43">
         <v>280</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="48">
         <v>0.9428571</v>
       </c>
-      <c r="E62" s="51">
+      <c r="E62" s="48">
         <v>1.389638E-2</v>
       </c>
-      <c r="F62" s="52">
+      <c r="F62" s="49">
         <v>0.95412989999999998</v>
       </c>
-      <c r="G62" s="52">
+      <c r="G62" s="49">
         <v>0.91084880000000001</v>
       </c>
-      <c r="H62" s="52">
+      <c r="H62" s="49">
         <v>0.97693110000000005</v>
       </c>
       <c r="I62" s="7"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="P62" s="50"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="P62" s="47"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="47">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="44">
         <v>278</v>
       </c>
-      <c r="D63" s="53">
+      <c r="D63" s="50">
         <v>0.91726620000000003</v>
       </c>
-      <c r="E63" s="53">
+      <c r="E63" s="50">
         <v>1.6551960000000001E-2</v>
       </c>
-      <c r="F63" s="57">
+      <c r="F63" s="54">
         <v>0.93444799999999995</v>
       </c>
-      <c r="G63" s="57">
+      <c r="G63" s="54">
         <v>0.88220929999999997</v>
       </c>
-      <c r="H63" s="57">
+      <c r="H63" s="54">
         <v>0.964453</v>
       </c>
       <c r="I63" s="7"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="P63" s="50"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="P63" s="47"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="7"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:14" ht="17" thickBot="1">
+    <row r="65" spans="1:13" ht="17" thickBot="1">
       <c r="A65" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I65" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:14" ht="17" thickTop="1">
+    <row r="66" spans="1:13" ht="17" thickTop="1">
       <c r="A66" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B66" s="5"/>
-      <c r="C66" s="51">
+      <c r="C66" s="55">
         <v>1142</v>
       </c>
-      <c r="D66" s="51">
+      <c r="D66" s="48">
         <v>6.772329</v>
       </c>
-      <c r="E66" s="51">
+      <c r="E66" s="48">
         <v>8.4594870000000003E-2</v>
       </c>
-      <c r="F66" s="51">
+      <c r="F66" s="48">
         <v>6.7039999999999997</v>
       </c>
-      <c r="G66" s="51">
+      <c r="G66" s="48">
         <v>6.3836000000000004</v>
       </c>
-      <c r="H66" s="51">
+      <c r="H66" s="48">
         <v>7.0404999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="17" thickBot="1">
+    <row r="67" spans="1:13" ht="17" thickBot="1">
       <c r="A67" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B67" s="14"/>
-      <c r="C67" s="55">
+      <c r="C67" s="57">
         <v>1388</v>
       </c>
-      <c r="D67" s="56">
+      <c r="D67" s="53">
         <v>6.9560519999999997</v>
       </c>
-      <c r="E67" s="56">
+      <c r="E67" s="53">
         <v>7.9919840000000006E-2</v>
       </c>
-      <c r="F67" s="56">
+      <c r="F67" s="53">
         <v>6.9240000000000004</v>
       </c>
-      <c r="G67" s="56">
+      <c r="G67" s="53">
         <v>6.6050000000000004</v>
       </c>
-      <c r="H67" s="56">
+      <c r="H67" s="53">
         <v>7.2577999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="17" thickTop="1">
+    <row r="68" spans="1:13" ht="17" thickTop="1">
       <c r="A68" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="51">
+        <v>29</v>
+      </c>
+      <c r="C68" s="55">
         <v>104</v>
       </c>
-      <c r="D68" s="51">
-        <v>14.72115</v>
-      </c>
-      <c r="E68" s="51">
-        <v>0.66498590000000002</v>
-      </c>
-      <c r="F68" s="52">
+      <c r="D68" s="49">
+        <v>6.3461540000000003</v>
+      </c>
+      <c r="E68" s="49">
+        <v>0.24775659999999999</v>
+      </c>
+      <c r="F68" s="49">
         <v>6.3225550000000004</v>
       </c>
-      <c r="G68" s="52">
+      <c r="G68" s="49">
         <v>5.7460019999999998</v>
       </c>
-      <c r="H68" s="52">
+      <c r="H68" s="49">
         <v>6.9569590000000003</v>
       </c>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="I68" s="47"/>
+      <c r="J68" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="47">
+        <v>6.3461540000000003</v>
+      </c>
+      <c r="L68" s="47">
+        <v>0.24775659999999999</v>
+      </c>
+      <c r="M68" s="47">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1"/>
       <c r="B69" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="51">
+        <v>30</v>
+      </c>
+      <c r="C69" s="55">
         <v>231</v>
       </c>
-      <c r="D69" s="51">
-        <v>16.974029999999999</v>
-      </c>
-      <c r="E69" s="51">
-        <v>0.56937070000000001</v>
-      </c>
-      <c r="F69" s="52">
+      <c r="D69" s="49">
+        <v>6.7575760000000002</v>
+      </c>
+      <c r="E69" s="49">
+        <v>0.2033238</v>
+      </c>
+      <c r="F69" s="49">
         <v>6.7344850000000003</v>
       </c>
-      <c r="G69" s="52">
+      <c r="G69" s="49">
         <v>6.2967750000000002</v>
       </c>
-      <c r="H69" s="52">
+      <c r="H69" s="49">
         <v>7.2026209999999997</v>
       </c>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="I69" s="47"/>
+      <c r="J69" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" s="47">
+        <v>6.7575760000000002</v>
+      </c>
+      <c r="L69" s="47">
+        <v>0.2033238</v>
+      </c>
+      <c r="M69" s="47">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1"/>
       <c r="B70" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="51">
+        <v>31</v>
+      </c>
+      <c r="C70" s="55">
         <v>227</v>
       </c>
-      <c r="D70" s="51">
-        <v>16.246700000000001</v>
-      </c>
-      <c r="E70" s="51">
-        <v>0.46292899999999998</v>
-      </c>
-      <c r="F70" s="52">
+      <c r="D70" s="49">
+        <v>6.3612330000000004</v>
+      </c>
+      <c r="E70" s="49">
+        <v>0.160914</v>
+      </c>
+      <c r="F70" s="49">
         <v>6.3388809999999998</v>
       </c>
-      <c r="G70" s="52">
+      <c r="G70" s="49">
         <v>5.9186009999999998</v>
       </c>
-      <c r="H70" s="52">
+      <c r="H70" s="49">
         <v>6.7890059999999997</v>
       </c>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="I70" s="47"/>
+      <c r="J70" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="47">
+        <v>6.3612330000000004</v>
+      </c>
+      <c r="L70" s="47">
+        <v>0.160914</v>
+      </c>
+      <c r="M70" s="47">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1"/>
       <c r="B71" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="51">
+        <v>32</v>
+      </c>
+      <c r="C71" s="55">
         <v>151</v>
       </c>
-      <c r="D71" s="51">
-        <v>13.53642</v>
-      </c>
-      <c r="E71" s="51">
-        <v>0.53038160000000001</v>
-      </c>
-      <c r="F71" s="52">
+      <c r="D71" s="49">
+        <v>6.675497</v>
+      </c>
+      <c r="E71" s="49">
+        <v>0.21988350000000001</v>
+      </c>
+      <c r="F71" s="49">
         <v>6.6346150000000002</v>
       </c>
-      <c r="G71" s="52">
+      <c r="G71" s="49">
         <v>6.139926</v>
       </c>
-      <c r="H71" s="52">
+      <c r="H71" s="49">
         <v>7.1691609999999999</v>
       </c>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="I71" s="47"/>
+      <c r="J71" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" s="47">
+        <v>6.675497</v>
+      </c>
+      <c r="L71" s="47">
+        <v>0.21988350000000001</v>
+      </c>
+      <c r="M71" s="47">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="51">
+        <v>35</v>
+      </c>
+      <c r="C72" s="55">
         <v>189</v>
       </c>
-      <c r="D72" s="51">
-        <v>13.719580000000001</v>
-      </c>
-      <c r="E72" s="51">
-        <v>0.48436479999999998</v>
-      </c>
-      <c r="F72" s="52">
+      <c r="D72" s="49">
+        <v>6.8571429999999998</v>
+      </c>
+      <c r="E72" s="49">
+        <v>0.21438889999999999</v>
+      </c>
+      <c r="F72" s="49">
         <v>6.8326820000000001</v>
       </c>
-      <c r="G72" s="52">
+      <c r="G72" s="49">
         <v>6.3619709999999996</v>
       </c>
-      <c r="H72" s="52">
+      <c r="H72" s="49">
         <v>7.3382209999999999</v>
       </c>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="53">
+      <c r="I72" s="47"/>
+      <c r="J72" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K72" s="47">
+        <v>6.8571429999999998</v>
+      </c>
+      <c r="L72" s="47">
+        <v>0.21438889999999999</v>
+      </c>
+      <c r="M72" s="47">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="38"/>
+      <c r="B73" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="56">
         <v>240</v>
       </c>
-      <c r="D73" s="53">
-        <v>14.554169999999999</v>
-      </c>
-      <c r="E73" s="53">
-        <v>0.40221010000000001</v>
-      </c>
-      <c r="F73" s="57">
+      <c r="D73" s="54">
+        <v>7.3541670000000003</v>
+      </c>
+      <c r="E73" s="54">
+        <v>0.1990605</v>
+      </c>
+      <c r="F73" s="54">
         <v>7.3254469999999996</v>
       </c>
-      <c r="G73" s="57">
+      <c r="G73" s="54">
         <v>6.8591730000000002</v>
       </c>
-      <c r="H73" s="57">
+      <c r="H73" s="54">
         <v>7.8234170000000001</v>
       </c>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="I73" s="47"/>
+      <c r="J73" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73" s="47">
+        <v>7.3541670000000003</v>
+      </c>
+      <c r="L73" s="47">
+        <v>0.1990605</v>
+      </c>
+      <c r="M73" s="47">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="51">
+        <v>34</v>
+      </c>
+      <c r="C74" s="55">
         <v>208</v>
       </c>
-      <c r="D74" s="51">
-        <v>14.807689999999999</v>
-      </c>
-      <c r="E74" s="51">
-        <v>0.4448471</v>
-      </c>
-      <c r="F74" s="52">
+      <c r="D74" s="49">
+        <v>6.9326920000000003</v>
+      </c>
+      <c r="E74" s="49">
+        <v>0.20315800000000001</v>
+      </c>
+      <c r="F74" s="49">
         <v>6.9293399999999998</v>
       </c>
-      <c r="G74" s="52">
+      <c r="G74" s="49">
         <v>6.4665309999999998</v>
       </c>
-      <c r="H74" s="52">
+      <c r="H74" s="49">
         <v>7.4252710000000004</v>
       </c>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="I74" s="47"/>
+      <c r="J74" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" s="47">
+        <v>6.9326920000000003</v>
+      </c>
+      <c r="L74" s="47">
+        <v>0.20315800000000001</v>
+      </c>
+      <c r="M74" s="47">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1"/>
       <c r="B75" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="51">
+        <v>37</v>
+      </c>
+      <c r="C75" s="55">
         <v>222</v>
       </c>
-      <c r="D75" s="51">
-        <v>14.91892</v>
-      </c>
-      <c r="E75" s="51">
-        <v>0.43440879999999998</v>
-      </c>
-      <c r="F75" s="52">
+      <c r="D75" s="49">
+        <v>6.4594589999999998</v>
+      </c>
+      <c r="E75" s="49">
+        <v>0.1820003</v>
+      </c>
+      <c r="F75" s="49">
         <v>6.4291510000000001</v>
       </c>
-      <c r="G75" s="52">
+      <c r="G75" s="49">
         <v>6.0026890000000002</v>
       </c>
-      <c r="H75" s="52">
+      <c r="H75" s="49">
         <v>6.88591</v>
       </c>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="50"/>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="I75" s="47"/>
+      <c r="J75" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" s="47">
+        <v>6.4594589999999998</v>
+      </c>
+      <c r="L75" s="47">
+        <v>0.1820003</v>
+      </c>
+      <c r="M75" s="47">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1"/>
       <c r="B76" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="51">
+        <v>38</v>
+      </c>
+      <c r="C76" s="55">
         <v>216</v>
       </c>
-      <c r="D76" s="51">
-        <v>15.125</v>
-      </c>
-      <c r="E76" s="51">
-        <v>0.45037129999999997</v>
-      </c>
-      <c r="F76" s="52">
+      <c r="D76" s="49">
+        <v>7.7037040000000001</v>
+      </c>
+      <c r="E76" s="49">
+        <v>0.21977189999999999</v>
+      </c>
+      <c r="F76" s="49">
         <v>7.6706770000000004</v>
       </c>
-      <c r="G76" s="52">
+      <c r="G76" s="49">
         <v>7.1811090000000002</v>
       </c>
-      <c r="H76" s="52">
+      <c r="H76" s="49">
         <v>8.1936210000000003</v>
       </c>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="50"/>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="I76" s="47"/>
+      <c r="J76" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="K76" s="47">
+        <v>7.7037040000000001</v>
+      </c>
+      <c r="L76" s="47">
+        <v>0.21977189999999999</v>
+      </c>
+      <c r="M76" s="47">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1"/>
       <c r="B77" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="51">
+        <v>43</v>
+      </c>
+      <c r="C77" s="55">
         <v>253</v>
       </c>
-      <c r="D77" s="51">
-        <v>15.83794</v>
-      </c>
-      <c r="E77" s="51">
-        <v>0.47077780000000002</v>
-      </c>
-      <c r="F77" s="52">
+      <c r="D77" s="49">
+        <v>6.7667979999999996</v>
+      </c>
+      <c r="E77" s="49">
+        <v>0.19679820000000001</v>
+      </c>
+      <c r="F77" s="49">
         <v>6.7417550000000004</v>
       </c>
-      <c r="G77" s="52">
+      <c r="G77" s="49">
         <v>6.3129739999999996</v>
       </c>
-      <c r="H77" s="52">
+      <c r="H77" s="49">
         <v>7.1996599999999997</v>
       </c>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="I77" s="47"/>
+      <c r="J77" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K77" s="47">
+        <v>6.7667979999999996</v>
+      </c>
+      <c r="L77" s="47">
+        <v>0.19679820000000001</v>
+      </c>
+      <c r="M77" s="47">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" s="51">
+        <v>45</v>
+      </c>
+      <c r="C78" s="55">
         <v>242</v>
       </c>
-      <c r="D78" s="51">
-        <v>16.570250000000001</v>
-      </c>
-      <c r="E78" s="51">
-        <v>0.42226590000000003</v>
-      </c>
-      <c r="F78" s="52">
+      <c r="D78" s="49">
+        <v>6.4504130000000002</v>
+      </c>
+      <c r="E78" s="49">
+        <v>0.1576716</v>
+      </c>
+      <c r="F78" s="49">
         <v>6.4431669999999999</v>
       </c>
-      <c r="G78" s="52">
+      <c r="G78" s="49">
         <v>6.0248090000000003</v>
       </c>
-      <c r="H78" s="52">
+      <c r="H78" s="49">
         <v>6.8905760000000003</v>
       </c>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="50"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="41"/>
-      <c r="B79" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="53">
+      <c r="I78" s="47"/>
+      <c r="J78" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78" s="47">
+        <v>6.4504130000000002</v>
+      </c>
+      <c r="L78" s="47">
+        <v>0.1576716</v>
+      </c>
+      <c r="M78" s="47">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="38"/>
+      <c r="B79" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="56">
         <v>247</v>
       </c>
-      <c r="D79" s="53">
-        <v>16.898790000000002</v>
-      </c>
-      <c r="E79" s="53">
-        <v>0.45080690000000001</v>
-      </c>
-      <c r="F79" s="57">
+      <c r="D79" s="54">
+        <v>7.45749</v>
+      </c>
+      <c r="E79" s="54">
+        <v>0.19970450000000001</v>
+      </c>
+      <c r="F79" s="54">
         <v>7.423343</v>
       </c>
-      <c r="G79" s="57">
+      <c r="G79" s="54">
         <v>6.9624379999999997</v>
       </c>
-      <c r="H79" s="57">
+      <c r="H79" s="54">
         <v>7.9147590000000001</v>
       </c>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="50"/>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="I79" s="47"/>
+      <c r="J79" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="47">
+        <v>7.45749</v>
+      </c>
+      <c r="L79" s="47">
+        <v>0.19970450000000001</v>
+      </c>
+      <c r="M79" s="47">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="7"/>
       <c r="J80" s="6"/>
       <c r="L80" s="6"/>
@@ -3713,55 +3920,57 @@
     </row>
     <row r="81" spans="1:15" ht="17" thickBot="1">
       <c r="A81" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H81" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I81" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="J81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
     </row>
     <row r="82" spans="1:15" ht="17" thickTop="1">
       <c r="A82" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B82" s="5"/>
-      <c r="C82" s="46">
+      <c r="C82" s="43">
         <v>1142</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D82" s="48">
         <v>15.122590000000001</v>
       </c>
-      <c r="E82" s="51">
+      <c r="E82" s="48">
         <v>0.21254919999999999</v>
       </c>
-      <c r="F82" s="51">
+      <c r="F82" s="48">
         <v>14.964</v>
       </c>
-      <c r="G82" s="51">
+      <c r="G82" s="48">
         <v>13.028</v>
       </c>
-      <c r="H82" s="51">
+      <c r="H82" s="48">
         <v>15.9</v>
       </c>
       <c r="I82" s="7"/>
@@ -3771,391 +3980,391 @@
     </row>
     <row r="83" spans="1:15" ht="17" thickBot="1">
       <c r="A83" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B83" s="14"/>
-      <c r="C83" s="31">
+      <c r="C83" s="30">
         <v>1388</v>
       </c>
-      <c r="D83" s="56">
+      <c r="D83" s="53">
         <v>15.74207</v>
       </c>
-      <c r="E83" s="56">
+      <c r="E83" s="53">
         <v>0.18373390000000001</v>
       </c>
-      <c r="F83" s="56">
+      <c r="F83" s="53">
         <v>15.6882</v>
       </c>
-      <c r="G83" s="56">
+      <c r="G83" s="53">
         <v>14.777100000000001</v>
       </c>
-      <c r="H83" s="56">
+      <c r="H83" s="53">
         <v>16.599299999999999</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="17" thickTop="1">
       <c r="A84" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="46">
+        <v>29</v>
+      </c>
+      <c r="C84" s="43">
         <v>104</v>
       </c>
-      <c r="D84" s="51">
+      <c r="D84" s="48">
         <v>14.72115</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="48">
         <v>0.66498590000000002</v>
       </c>
-      <c r="F84" s="52">
+      <c r="F84" s="49">
         <v>14.65963</v>
       </c>
-      <c r="G84" s="52">
+      <c r="G84" s="49">
         <v>13.09864</v>
       </c>
-      <c r="H84" s="52">
+      <c r="H84" s="49">
         <v>16.22063</v>
       </c>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="50"/>
-      <c r="O84" s="50"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="O84" s="47"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
       <c r="B85" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="46">
+        <v>30</v>
+      </c>
+      <c r="C85" s="43">
         <v>231</v>
       </c>
-      <c r="D85" s="51">
+      <c r="D85" s="48">
         <v>16.974029999999999</v>
       </c>
-      <c r="E85" s="51">
+      <c r="E85" s="48">
         <v>0.56937070000000001</v>
       </c>
-      <c r="F85" s="52">
+      <c r="F85" s="49">
         <v>16.917940000000002</v>
       </c>
-      <c r="G85" s="52">
+      <c r="G85" s="49">
         <v>15.81579</v>
       </c>
-      <c r="H85" s="52">
+      <c r="H85" s="49">
         <v>18.02008</v>
       </c>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="50"/>
-      <c r="O85" s="50"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="O85" s="47"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
       <c r="B86" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="46">
+        <v>31</v>
+      </c>
+      <c r="C86" s="43">
         <v>227</v>
       </c>
-      <c r="D86" s="51">
+      <c r="D86" s="48">
         <v>16.246700000000001</v>
       </c>
-      <c r="E86" s="51">
+      <c r="E86" s="48">
         <v>0.46292899999999998</v>
       </c>
-      <c r="F86" s="52">
+      <c r="F86" s="49">
         <v>16.182539999999999</v>
       </c>
-      <c r="G86" s="52">
+      <c r="G86" s="49">
         <v>15.075229999999999</v>
       </c>
-      <c r="H86" s="52">
+      <c r="H86" s="49">
         <v>17.289850000000001</v>
       </c>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="50"/>
-      <c r="O86" s="50"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="O86" s="47"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
       <c r="B87" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="46">
+        <v>32</v>
+      </c>
+      <c r="C87" s="43">
         <v>151</v>
       </c>
-      <c r="D87" s="51">
+      <c r="D87" s="48">
         <v>13.53642</v>
       </c>
-      <c r="E87" s="51">
+      <c r="E87" s="48">
         <v>0.53038160000000001</v>
       </c>
-      <c r="F87" s="52">
+      <c r="F87" s="49">
         <v>13.52609</v>
       </c>
-      <c r="G87" s="52">
+      <c r="G87" s="49">
         <v>12.23827</v>
       </c>
-      <c r="H87" s="52">
+      <c r="H87" s="49">
         <v>14.8139</v>
       </c>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="50"/>
-      <c r="O87" s="50"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="O87" s="47"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
       <c r="B88" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="46">
+        <v>35</v>
+      </c>
+      <c r="C88" s="43">
         <v>189</v>
       </c>
-      <c r="D88" s="51">
+      <c r="D88" s="48">
         <v>13.719580000000001</v>
       </c>
-      <c r="E88" s="51">
+      <c r="E88" s="48">
         <v>0.48436479999999998</v>
       </c>
-      <c r="F88" s="52">
+      <c r="F88" s="49">
         <v>13.750349999999999</v>
       </c>
-      <c r="G88" s="52">
+      <c r="G88" s="49">
         <v>12.563750000000001</v>
       </c>
-      <c r="H88" s="52">
+      <c r="H88" s="49">
         <v>14.936959999999999</v>
       </c>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="O88" s="50"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="O88" s="47"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="41"/>
-      <c r="B89" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C89" s="47">
+      <c r="A89" s="38"/>
+      <c r="B89" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="44">
         <v>240</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="50">
         <v>14.554169999999999</v>
       </c>
-      <c r="E89" s="53">
+      <c r="E89" s="50">
         <v>0.40221010000000001</v>
       </c>
-      <c r="F89" s="57">
+      <c r="F89" s="54">
         <v>14.52922</v>
       </c>
-      <c r="G89" s="57">
+      <c r="G89" s="54">
         <v>13.43075</v>
       </c>
-      <c r="H89" s="57">
+      <c r="H89" s="54">
         <v>15.627689999999999</v>
       </c>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="50"/>
-      <c r="O89" s="50"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="O89" s="47"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="46">
+        <v>34</v>
+      </c>
+      <c r="C90" s="43">
         <v>208</v>
       </c>
-      <c r="D90" s="51">
+      <c r="D90" s="48">
         <v>14.807689999999999</v>
       </c>
-      <c r="E90" s="51">
+      <c r="E90" s="48">
         <v>0.4448471</v>
       </c>
-      <c r="F90" s="52">
+      <c r="F90" s="49">
         <v>14.82016</v>
       </c>
-      <c r="G90" s="52">
+      <c r="G90" s="49">
         <v>13.67252</v>
       </c>
-      <c r="H90" s="52">
+      <c r="H90" s="49">
         <v>15.9678</v>
       </c>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="50"/>
-      <c r="O90" s="50"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="O90" s="47"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
       <c r="B91" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="46">
+        <v>37</v>
+      </c>
+      <c r="C91" s="43">
         <v>222</v>
       </c>
-      <c r="D91" s="51">
+      <c r="D91" s="48">
         <v>14.91892</v>
       </c>
-      <c r="E91" s="51">
+      <c r="E91" s="48">
         <v>0.43440879999999998</v>
       </c>
-      <c r="F91" s="52">
+      <c r="F91" s="49">
         <v>14.896280000000001</v>
       </c>
-      <c r="G91" s="52">
+      <c r="G91" s="49">
         <v>13.782959999999999</v>
       </c>
-      <c r="H91" s="52">
+      <c r="H91" s="49">
         <v>16.009609999999999</v>
       </c>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="O91" s="50"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="O91" s="47"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
       <c r="B92" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C92" s="46">
+        <v>38</v>
+      </c>
+      <c r="C92" s="43">
         <v>216</v>
       </c>
-      <c r="D92" s="51">
+      <c r="D92" s="48">
         <v>15.125</v>
       </c>
-      <c r="E92" s="51">
+      <c r="E92" s="48">
         <v>0.45037129999999997</v>
       </c>
-      <c r="F92" s="52">
+      <c r="F92" s="49">
         <v>15.10717</v>
       </c>
-      <c r="G92" s="52">
+      <c r="G92" s="49">
         <v>13.982329999999999</v>
       </c>
-      <c r="H92" s="52">
+      <c r="H92" s="49">
         <v>16.232019999999999</v>
       </c>
-      <c r="I92" s="50"/>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="50"/>
-      <c r="O92" s="50"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="O92" s="47"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
       <c r="B93" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="46">
+        <v>43</v>
+      </c>
+      <c r="C93" s="43">
         <v>253</v>
       </c>
-      <c r="D93" s="51">
+      <c r="D93" s="48">
         <v>15.83794</v>
       </c>
-      <c r="E93" s="51">
+      <c r="E93" s="48">
         <v>0.47077780000000002</v>
       </c>
-      <c r="F93" s="52">
+      <c r="F93" s="49">
         <v>15.79293</v>
       </c>
-      <c r="G93" s="52">
+      <c r="G93" s="49">
         <v>14.719889999999999</v>
       </c>
-      <c r="H93" s="52">
+      <c r="H93" s="49">
         <v>16.865970000000001</v>
       </c>
-      <c r="I93" s="50"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="50"/>
-      <c r="O93" s="50"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="O93" s="47"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
       <c r="B94" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C94" s="46">
+        <v>45</v>
+      </c>
+      <c r="C94" s="43">
         <v>242</v>
       </c>
-      <c r="D94" s="51">
+      <c r="D94" s="48">
         <v>16.570250000000001</v>
       </c>
-      <c r="E94" s="51">
+      <c r="E94" s="48">
         <v>0.42226590000000003</v>
       </c>
-      <c r="F94" s="52">
+      <c r="F94" s="49">
         <v>16.582999999999998</v>
       </c>
-      <c r="G94" s="52">
+      <c r="G94" s="49">
         <v>15.49751</v>
       </c>
-      <c r="H94" s="52">
+      <c r="H94" s="49">
         <v>17.668489999999998</v>
       </c>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="O94" s="50"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="O94" s="47"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="41"/>
-      <c r="B95" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" s="47">
+      <c r="A95" s="38"/>
+      <c r="B95" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="44">
         <v>247</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D95" s="50">
         <v>16.898790000000002</v>
       </c>
-      <c r="E95" s="53">
+      <c r="E95" s="50">
         <v>0.45080690000000001</v>
       </c>
-      <c r="F95" s="57">
+      <c r="F95" s="54">
         <v>16.88083</v>
       </c>
-      <c r="G95" s="57">
+      <c r="G95" s="54">
         <v>15.805809999999999</v>
       </c>
-      <c r="H95" s="57">
+      <c r="H95" s="54">
         <v>17.955860000000001</v>
       </c>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="50"/>
-      <c r="M95" s="50"/>
-      <c r="O95" s="50"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="O95" s="47"/>
     </row>
     <row r="96" spans="1:15">
       <c r="I96" s="7"/>
@@ -4199,165 +4408,165 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickTop="1">
       <c r="A2" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="22">
         <v>2</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F2" s="16">
         <v>-105.26554</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="22"/>
       <c r="B3" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="22">
         <v>2</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F3" s="16">
         <v>-105.28355000000001</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="22"/>
       <c r="B4" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C4" s="22">
         <v>2</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F4" s="16">
         <v>-105.13346</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="22"/>
       <c r="B5" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" s="22">
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F5" s="16">
         <v>-105.32137</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="22"/>
       <c r="B6" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="22">
         <v>2</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F6" s="16">
         <v>-105.43423</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="22"/>
       <c r="B7" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="22">
         <v>2</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F7" s="16">
         <v>-105.40622</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="23"/>
       <c r="B8" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" s="23">
         <v>2</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="19">
         <v>62.1235</v>
@@ -4366,84 +4575,84 @@
         <v>-136.25749999999999</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="34">
+      <c r="C9" s="31">
         <v>3</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="34">
+        <v>34</v>
+      </c>
+      <c r="C10" s="31">
         <v>3</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F10" s="16">
         <v>-106.03748</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="22"/>
       <c r="B11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="34">
+        <v>37</v>
+      </c>
+      <c r="C11" s="31">
         <v>3</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F11" s="16">
         <v>-105.52158</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="22"/>
       <c r="B12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="34">
+        <v>38</v>
+      </c>
+      <c r="C12" s="31">
         <v>3</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E12" s="16">
         <v>41.386400000000002</v>
@@ -4452,40 +4661,40 @@
         <v>-105.47349</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="22"/>
       <c r="B13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="34">
+        <v>39</v>
+      </c>
+      <c r="C13" s="31">
         <v>3</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F13" s="16">
         <v>-110.55269</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="22"/>
       <c r="B14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="34">
+        <v>40</v>
+      </c>
+      <c r="C14" s="31">
         <v>3</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E14" s="16">
         <v>41.680199999999999</v>
@@ -4494,175 +4703,175 @@
         <v>-110.61193</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="22"/>
       <c r="B15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="34">
+        <v>41</v>
+      </c>
+      <c r="C15" s="31">
         <v>3</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F15" s="16">
         <v>-105.8814</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="22"/>
       <c r="B16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="34">
+        <v>42</v>
+      </c>
+      <c r="C16" s="31">
         <v>3</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F16" s="16">
         <v>-105.37783</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="22"/>
       <c r="B17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="34">
+        <v>43</v>
+      </c>
+      <c r="C17" s="31">
         <v>3</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16">
         <v>-110.475238</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="22"/>
       <c r="B18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="34">
+        <v>44</v>
+      </c>
+      <c r="C18" s="31">
         <v>3</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F18" s="16">
         <v>-111.55634000000001</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="34">
+        <v>45</v>
+      </c>
+      <c r="C19" s="31">
         <v>3</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="34">
+        <v>46</v>
+      </c>
+      <c r="C20" s="31">
         <v>3</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" s="17">
         <v>-112.466667</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="22"/>
       <c r="B21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="34">
+        <v>47</v>
+      </c>
+      <c r="C21" s="31">
         <v>3</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F21" s="16">
         <v>-116.05952000000001</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="23"/>
       <c r="B22" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F22" s="19">
         <v>-135.91428999999999</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
